--- a/results/sorted/realdata_tree_summary.xlsx
+++ b/results/sorted/realdata_tree_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="36">
   <si>
     <t>dataset</t>
   </si>
@@ -37,10 +37,43 @@
     <t>abalone</t>
   </si>
   <si>
-    <t>bodyfat_scale</t>
+    <t>airfoil</t>
+  </si>
+  <si>
+    <t>algerian</t>
+  </si>
+  <si>
+    <t>aquatic</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>cbm</t>
+  </si>
+  <si>
+    <t>ccpp</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>concrete</t>
   </si>
   <si>
     <t>cpusmall_scale</t>
+  </si>
+  <si>
+    <t>dakbilgic</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>forestfires</t>
   </si>
   <si>
     <t>housing_scale</t>
@@ -52,13 +85,22 @@
     <t>mpg_scale</t>
   </si>
   <si>
-    <t>pyrim_scale</t>
+    <t>music</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>redwine</t>
   </si>
   <si>
     <t>space_ga_scale</t>
   </si>
   <si>
-    <t>triazines_scale</t>
+    <t>whitewine</t>
+  </si>
+  <si>
+    <t>yacht</t>
   </si>
   <si>
     <t>method</t>
@@ -70,13 +112,16 @@
     <t>PRT</t>
   </si>
   <si>
-    <t>PRT_val</t>
-  </si>
-  <si>
     <t>RTER</t>
   </si>
   <si>
     <t>RTER_pure</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>STRT</t>
   </si>
 </sst>
 </file>
@@ -434,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC9"/>
+  <dimension ref="A1:EI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:139">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -462,9 +507,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -482,9 +525,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
@@ -494,7 +535,9 @@
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
+      <c r="AV1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="AW1" s="1"/>
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
@@ -502,8 +545,94 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:139">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -516,9 +645,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -527,20 +654,18 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -549,9 +674,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -560,10 +683,10 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
-      <c r="AU2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AV2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="AW2" s="1"/>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
@@ -571,8 +694,98 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1"/>
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1"/>
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1"/>
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1"/>
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
+      <c r="EC2" s="1"/>
+      <c r="ED2" s="1"/>
+      <c r="EE2" s="1"/>
+      <c r="EF2" s="1"/>
+      <c r="EG2" s="1"/>
+      <c r="EH2" s="1"/>
+      <c r="EI2" s="1"/>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:139">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,974 +817,2869 @@
         <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CP3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="DH3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="DI3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="DM3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="DV3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="DZ3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="EA3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="EC3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:139">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:139">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>5.701880279253738</v>
+        <v>5.747769789154163</v>
       </c>
       <c r="C5">
-        <v>1.413321258088981E-05</v>
+        <v>14.28514922916004</v>
       </c>
       <c r="D5">
-        <v>16.37054489000963</v>
+        <v>0.02694549793005012</v>
       </c>
       <c r="E5">
-        <v>22.13975944653791</v>
+        <v>1.943074922777125</v>
       </c>
       <c r="F5">
-        <v>0.01866765282925122</v>
+        <v>1.747258687708613</v>
       </c>
       <c r="G5">
-        <v>12.6042099313368</v>
+        <v>115300.0619691821</v>
       </c>
       <c r="H5">
-        <v>0.01124795650042154</v>
+        <v>4.240774325541802E-27</v>
       </c>
       <c r="I5">
-        <v>0.01797690388793947</v>
+        <v>18.24444267161774</v>
       </c>
       <c r="J5">
-        <v>0.01730213461348565</v>
+        <v>0.03997339712829764</v>
       </c>
       <c r="K5">
-        <v>0.0002649784088134766</v>
+        <v>61.49778610296082</v>
       </c>
       <c r="L5">
-        <v>0.0001428604125976563</v>
+        <v>15.44878581697087</v>
       </c>
       <c r="M5">
-        <v>0.0002212047576904297</v>
+        <v>4.428603629204945E-05</v>
       </c>
       <c r="N5">
-        <v>0.0002637863159179688</v>
+        <v>1.203433525334173</v>
       </c>
       <c r="O5">
-        <v>0.0001890182495117187</v>
+        <v>5140.253753439617</v>
       </c>
       <c r="P5">
-        <v>0.0002381801605224609</v>
+        <v>23.11651570629695</v>
       </c>
       <c r="Q5">
-        <v>0.0001488685607910156</v>
+        <v>0.01832756717498385</v>
       </c>
       <c r="R5">
-        <v>0.0002233505249023437</v>
+        <v>13.26778006069269</v>
       </c>
       <c r="S5">
-        <v>0.0001718521118164062</v>
+        <v>319.494719892821</v>
       </c>
       <c r="T5">
-        <v>0.2927477991123433</v>
+        <v>0.009641530439624745</v>
       </c>
       <c r="U5">
-        <v>5.78007775049227E-06</v>
+        <v>0.4637674099733684</v>
       </c>
       <c r="V5">
-        <v>2.096135216252057</v>
+        <v>0.01842761553560331</v>
       </c>
       <c r="W5">
-        <v>5.474861739460906</v>
+        <v>0.5566266765530336</v>
       </c>
       <c r="X5">
-        <v>0.002373132868116016</v>
+        <v>2.250673104964408</v>
       </c>
       <c r="Y5">
-        <v>1.536326600551345</v>
+        <v>0.0004057407379150391</v>
       </c>
       <c r="Z5">
-        <v>0.01077881727203788</v>
+        <v>0.0003883600234985352</v>
       </c>
       <c r="AA5">
-        <v>0.002177678359690593</v>
+        <v>0.0002960443496704102</v>
       </c>
       <c r="AB5">
-        <v>0.004659339421612067</v>
+        <v>0.0002950191497802735</v>
       </c>
       <c r="AC5">
-        <v>7.60090994162684E-05</v>
+        <v>0.0005546331405639649</v>
       </c>
       <c r="AD5">
-        <v>4.500159364654044E-05</v>
+        <v>0.0003672480583190918</v>
       </c>
       <c r="AE5">
-        <v>3.718106973575203E-06</v>
+        <v>0.0005213260650634765</v>
       </c>
       <c r="AF5">
-        <v>0.0001088324798153642</v>
+        <v>0.0005749702453613281</v>
       </c>
       <c r="AG5">
-        <v>5.312038708775703E-05</v>
+        <v>0.000366663932800293</v>
       </c>
       <c r="AH5">
-        <v>8.622697237688598E-05</v>
+        <v>0.0003491401672363281</v>
       </c>
       <c r="AI5">
-        <v>3.555259926945687E-05</v>
+        <v>0.0005575299263000488</v>
       </c>
       <c r="AJ5">
-        <v>1.522653120403912E-05</v>
+        <v>0.0003325819969177246</v>
       </c>
       <c r="AK5">
-        <v>5.791324211031557E-05</v>
+        <v>0.0003342986106872559</v>
       </c>
       <c r="AL5">
-        <v>5</v>
+        <v>0.0002773880958557129</v>
       </c>
       <c r="AM5">
-        <v>5</v>
+        <v>0.0003256797790527344</v>
       </c>
       <c r="AN5">
-        <v>5</v>
+        <v>0.0004032611846923828</v>
       </c>
       <c r="AO5">
-        <v>5</v>
+        <v>0.0002761483192443848</v>
       </c>
       <c r="AP5">
-        <v>5</v>
+        <v>0.0004081606864929199</v>
       </c>
       <c r="AQ5">
-        <v>5</v>
+        <v>0.0002414584159851074</v>
       </c>
       <c r="AR5">
-        <v>5</v>
+        <v>0.0004124641418457031</v>
       </c>
       <c r="AS5">
-        <v>5</v>
+        <v>0.0004897594451904296</v>
       </c>
       <c r="AT5">
-        <v>5</v>
+        <v>0.0004904031753540039</v>
       </c>
       <c r="AU5">
-        <v>5</v>
+        <v>0.0002826094627380371</v>
       </c>
       <c r="AV5">
-        <v>5</v>
+        <v>0.3897873078269757</v>
       </c>
       <c r="AW5">
-        <v>5</v>
+        <v>1.233624789462396</v>
       </c>
       <c r="AX5">
-        <v>5</v>
+        <v>0.01614725684129389</v>
       </c>
       <c r="AY5">
-        <v>5</v>
+        <v>0.2774318651846926</v>
       </c>
       <c r="AZ5">
-        <v>5</v>
+        <v>0.07454086353189394</v>
       </c>
       <c r="BA5">
-        <v>5</v>
+        <v>55287.78486172242</v>
       </c>
       <c r="BB5">
-        <v>5</v>
+        <v>4.005638051222209E-28</v>
       </c>
       <c r="BC5">
-        <v>5</v>
+        <v>0.9181340474065504</v>
+      </c>
+      <c r="BD5">
+        <v>0.004618339427687681</v>
+      </c>
+      <c r="BE5">
+        <v>6.177395719137786</v>
+      </c>
+      <c r="BF5">
+        <v>1.73517765723043</v>
+      </c>
+      <c r="BG5">
+        <v>7.763365572168967E-06</v>
+      </c>
+      <c r="BH5">
+        <v>0.1593768082552764</v>
+      </c>
+      <c r="BI5">
+        <v>4876.556610133736</v>
+      </c>
+      <c r="BJ5">
+        <v>7.061064707025213</v>
+      </c>
+      <c r="BK5">
+        <v>0.001899463209658456</v>
+      </c>
+      <c r="BL5">
+        <v>3.807690569732957</v>
+      </c>
+      <c r="BM5">
+        <v>27.72640265745498</v>
+      </c>
+      <c r="BN5">
+        <v>0.005677367431976798</v>
+      </c>
+      <c r="BO5">
+        <v>0.0379470143948554</v>
+      </c>
+      <c r="BP5">
+        <v>0.002577217962373242</v>
+      </c>
+      <c r="BQ5">
+        <v>0.02551084580480604</v>
+      </c>
+      <c r="BR5">
+        <v>0.7778921422695719</v>
+      </c>
+      <c r="BS5">
+        <v>8.660379591551768E-05</v>
+      </c>
+      <c r="BT5">
+        <v>8.910843382019402E-05</v>
+      </c>
+      <c r="BU5">
+        <v>5.830980066928844E-05</v>
+      </c>
+      <c r="BV5">
+        <v>4.696558725191726E-05</v>
+      </c>
+      <c r="BW5">
+        <v>9.960446792501981E-05</v>
+      </c>
+      <c r="BX5">
+        <v>7.057988051645888E-05</v>
+      </c>
+      <c r="BY5">
+        <v>7.169153801866318E-05</v>
+      </c>
+      <c r="BZ5">
+        <v>9.549701194330496E-05</v>
+      </c>
+      <c r="CA5">
+        <v>3.568288175104727E-05</v>
+      </c>
+      <c r="CB5">
+        <v>5.874472247253931E-05</v>
+      </c>
+      <c r="CC5">
+        <v>0.0001021241115450375</v>
+      </c>
+      <c r="CD5">
+        <v>6.355131498919417E-05</v>
+      </c>
+      <c r="CE5">
+        <v>3.171747975348363E-05</v>
+      </c>
+      <c r="CF5">
+        <v>3.834179604904985E-05</v>
+      </c>
+      <c r="CG5">
+        <v>3.350626045288415E-05</v>
+      </c>
+      <c r="CH5">
+        <v>4.281221233744062E-05</v>
+      </c>
+      <c r="CI5">
+        <v>5.124285439389787E-05</v>
+      </c>
+      <c r="CJ5">
+        <v>6.820168538945345E-05</v>
+      </c>
+      <c r="CK5">
+        <v>4.645508161552719E-05</v>
+      </c>
+      <c r="CL5">
+        <v>7.197244651577082E-05</v>
+      </c>
+      <c r="CM5">
+        <v>8.832247345705716E-05</v>
+      </c>
+      <c r="CN5">
+        <v>9.219819880301375E-05</v>
+      </c>
+      <c r="CO5">
+        <v>5.572364184652787E-05</v>
+      </c>
+      <c r="CP5">
+        <v>20</v>
+      </c>
+      <c r="CQ5">
+        <v>20</v>
+      </c>
+      <c r="CR5">
+        <v>20</v>
+      </c>
+      <c r="CS5">
+        <v>20</v>
+      </c>
+      <c r="CT5">
+        <v>20</v>
+      </c>
+      <c r="CU5">
+        <v>20</v>
+      </c>
+      <c r="CV5">
+        <v>20</v>
+      </c>
+      <c r="CW5">
+        <v>20</v>
+      </c>
+      <c r="CX5">
+        <v>20</v>
+      </c>
+      <c r="CY5">
+        <v>20</v>
+      </c>
+      <c r="CZ5">
+        <v>20</v>
+      </c>
+      <c r="DA5">
+        <v>20</v>
+      </c>
+      <c r="DB5">
+        <v>20</v>
+      </c>
+      <c r="DC5">
+        <v>20</v>
+      </c>
+      <c r="DD5">
+        <v>20</v>
+      </c>
+      <c r="DE5">
+        <v>20</v>
+      </c>
+      <c r="DF5">
+        <v>20</v>
+      </c>
+      <c r="DG5">
+        <v>20</v>
+      </c>
+      <c r="DH5">
+        <v>20</v>
+      </c>
+      <c r="DI5">
+        <v>20</v>
+      </c>
+      <c r="DJ5">
+        <v>20</v>
+      </c>
+      <c r="DK5">
+        <v>20</v>
+      </c>
+      <c r="DL5">
+        <v>20</v>
+      </c>
+      <c r="DM5">
+        <v>20</v>
+      </c>
+      <c r="DN5">
+        <v>20</v>
+      </c>
+      <c r="DO5">
+        <v>20</v>
+      </c>
+      <c r="DP5">
+        <v>20</v>
+      </c>
+      <c r="DQ5">
+        <v>20</v>
+      </c>
+      <c r="DR5">
+        <v>20</v>
+      </c>
+      <c r="DS5">
+        <v>20</v>
+      </c>
+      <c r="DT5">
+        <v>20</v>
+      </c>
+      <c r="DU5">
+        <v>20</v>
+      </c>
+      <c r="DV5">
+        <v>20</v>
+      </c>
+      <c r="DW5">
+        <v>20</v>
+      </c>
+      <c r="DX5">
+        <v>20</v>
+      </c>
+      <c r="DY5">
+        <v>20</v>
+      </c>
+      <c r="DZ5">
+        <v>20</v>
+      </c>
+      <c r="EA5">
+        <v>20</v>
+      </c>
+      <c r="EB5">
+        <v>20</v>
+      </c>
+      <c r="EC5">
+        <v>20</v>
+      </c>
+      <c r="ED5">
+        <v>20</v>
+      </c>
+      <c r="EE5">
+        <v>20</v>
+      </c>
+      <c r="EF5">
+        <v>20</v>
+      </c>
+      <c r="EG5">
+        <v>20</v>
+      </c>
+      <c r="EH5">
+        <v>20</v>
+      </c>
+      <c r="EI5">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:139">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>5.21479087823518</v>
+        <v>5.891161770359986</v>
       </c>
       <c r="C6">
-        <v>0.00272812356416306</v>
+        <v>34.94044002732649</v>
       </c>
       <c r="D6">
-        <v>29.23370958238454</v>
+        <v>0.03304694268929095</v>
       </c>
       <c r="E6">
-        <v>22.82188529424447</v>
+        <v>1.786113589339691</v>
       </c>
       <c r="F6">
-        <v>0.02079379721838486</v>
+        <v>2.085331051723548</v>
       </c>
       <c r="G6">
-        <v>8.311028244695168</v>
+        <v>103285.136482234</v>
       </c>
       <c r="H6">
-        <v>0.02306875805543942</v>
+        <v>0.1885836164419841</v>
       </c>
       <c r="I6">
-        <v>0.02015559403681788</v>
+        <v>25.61055549203774</v>
       </c>
       <c r="J6">
-        <v>0.02741152951113558</v>
+        <v>0.0322368003315591</v>
       </c>
       <c r="K6">
-        <v>6.1331214427948</v>
+        <v>165.2795522237865</v>
       </c>
       <c r="L6">
-        <v>0.3045893669128418</v>
+        <v>30.03748621800845</v>
       </c>
       <c r="M6">
-        <v>14.56523976325989</v>
+        <v>3.982787711454589E-05</v>
       </c>
       <c r="N6">
-        <v>0.8424468994140625</v>
+        <v>1.088125963366785</v>
       </c>
       <c r="O6">
-        <v>1.925559997558594</v>
+        <v>4107.927654776264</v>
       </c>
       <c r="P6">
-        <v>0.4470851898193359</v>
+        <v>32.54404302933658</v>
       </c>
       <c r="Q6">
-        <v>0.2260378360748291</v>
+        <v>0.02583782855023767</v>
       </c>
       <c r="R6">
-        <v>4.270685386657715</v>
+        <v>14.82830933959681</v>
       </c>
       <c r="S6">
-        <v>0.3557620525360107</v>
+        <v>306.328120026861</v>
       </c>
       <c r="T6">
-        <v>0.315280813048075</v>
+        <v>0.01060100445626292</v>
       </c>
       <c r="U6">
-        <v>0.002930248488336984</v>
+        <v>0.4631975660931517</v>
       </c>
       <c r="V6">
-        <v>9.774357849848323</v>
+        <v>0.02463778143074475</v>
       </c>
       <c r="W6">
-        <v>4.998254423739821</v>
+        <v>0.5820509349684706</v>
       </c>
       <c r="X6">
-        <v>0.001049039165258478</v>
+        <v>22.75875494506286</v>
       </c>
       <c r="Y6">
-        <v>0.5044392558444889</v>
+        <v>6.281939005851745</v>
       </c>
       <c r="Z6">
-        <v>0.01216995476887371</v>
+        <v>2.68706933259964</v>
       </c>
       <c r="AA6">
-        <v>0.001094998585409909</v>
+        <v>0.3853134989738464</v>
       </c>
       <c r="AB6">
-        <v>0.007777103165524316</v>
+        <v>0.8094832181930542</v>
       </c>
       <c r="AC6">
-        <v>0.4280933356337421</v>
+        <v>11.1942540884018</v>
       </c>
       <c r="AD6">
-        <v>0.02156738694590824</v>
+        <v>0.5162784695625305</v>
       </c>
       <c r="AE6">
-        <v>2.865368605039679</v>
+        <v>17.15136346817017</v>
       </c>
       <c r="AF6">
-        <v>0.1087686993289411</v>
+        <v>14.22440015077591</v>
       </c>
       <c r="AG6">
-        <v>0.2885674441843237</v>
+        <v>0.4877322196960449</v>
       </c>
       <c r="AH6">
-        <v>0.05433529991451649</v>
+        <v>1.59846054315567</v>
       </c>
       <c r="AI6">
-        <v>0.04209280969353068</v>
+        <v>12.11593682765961</v>
       </c>
       <c r="AJ6">
-        <v>0.3821460792261531</v>
+        <v>0.770058810710907</v>
       </c>
       <c r="AK6">
-        <v>0.04706777663297351</v>
+        <v>1.355133891105652</v>
       </c>
       <c r="AL6">
-        <v>5</v>
+        <v>0.7779181480407715</v>
       </c>
       <c r="AM6">
-        <v>5</v>
+        <v>0.7472689151763916</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>2.093438518047333</v>
       </c>
       <c r="AO6">
-        <v>5</v>
+        <v>0.6337216019630432</v>
       </c>
       <c r="AP6">
-        <v>5</v>
+        <v>1.547664284706116</v>
       </c>
       <c r="AQ6">
-        <v>5</v>
+        <v>0.1378496050834656</v>
       </c>
       <c r="AR6">
-        <v>5</v>
+        <v>2.370375263690948</v>
       </c>
       <c r="AS6">
-        <v>5</v>
+        <v>5.880245065689087</v>
       </c>
       <c r="AT6">
-        <v>5</v>
+        <v>8.231825578212739</v>
       </c>
       <c r="AU6">
-        <v>5</v>
+        <v>0.4168422102928162</v>
       </c>
       <c r="AV6">
-        <v>5</v>
+        <v>0.3871480159844607</v>
       </c>
       <c r="AW6">
-        <v>5</v>
+        <v>1.798014233559806</v>
       </c>
       <c r="AX6">
-        <v>5</v>
+        <v>0.01211514310956546</v>
       </c>
       <c r="AY6">
-        <v>5</v>
+        <v>0.2044850526042604</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>0.06173026620827394</v>
       </c>
       <c r="BA6">
-        <v>5</v>
+        <v>42840.07130768856</v>
       </c>
       <c r="BB6">
-        <v>5</v>
+        <v>0.006358267934863175</v>
       </c>
       <c r="BC6">
-        <v>5</v>
+        <v>0.9260898266795295</v>
+      </c>
+      <c r="BD6">
+        <v>0.003203031351956205</v>
+      </c>
+      <c r="BE6">
+        <v>19.26109670740706</v>
+      </c>
+      <c r="BF6">
+        <v>1.162625492312917</v>
+      </c>
+      <c r="BG6">
+        <v>1.085775491990391E-05</v>
+      </c>
+      <c r="BH6">
+        <v>0.1026099484939536</v>
+      </c>
+      <c r="BI6">
+        <v>3845.916003440167</v>
+      </c>
+      <c r="BJ6">
+        <v>5.015834798043986</v>
+      </c>
+      <c r="BK6">
+        <v>0.002279166983569775</v>
+      </c>
+      <c r="BL6">
+        <v>4.867319432964874</v>
+      </c>
+      <c r="BM6">
+        <v>24.95454439283437</v>
+      </c>
+      <c r="BN6">
+        <v>0.003798667217213972</v>
+      </c>
+      <c r="BO6">
+        <v>0.03145197955852912</v>
+      </c>
+      <c r="BP6">
+        <v>0.003015031594934032</v>
+      </c>
+      <c r="BQ6">
+        <v>0.02235003802000892</v>
+      </c>
+      <c r="BR6">
+        <v>4.145003128978161</v>
+      </c>
+      <c r="BS6">
+        <v>0.426713122491067</v>
+      </c>
+      <c r="BT6">
+        <v>0.437998572221531</v>
+      </c>
+      <c r="BU6">
+        <v>0.0671368835734998</v>
+      </c>
+      <c r="BV6">
+        <v>0.009108252188217569</v>
+      </c>
+      <c r="BW6">
+        <v>0.4247186054858467</v>
+      </c>
+      <c r="BX6">
+        <v>0.03502173311547473</v>
+      </c>
+      <c r="BY6">
+        <v>1.051171954111021</v>
+      </c>
+      <c r="BZ6">
+        <v>1.184311381027423</v>
+      </c>
+      <c r="CA6">
+        <v>0.02340900673699818</v>
+      </c>
+      <c r="CB6">
+        <v>0.05899080702809049</v>
+      </c>
+      <c r="CC6">
+        <v>0.1549698643002003</v>
+      </c>
+      <c r="CD6">
+        <v>0.04881637867782242</v>
+      </c>
+      <c r="CE6">
+        <v>0.07913671199777861</v>
+      </c>
+      <c r="CF6">
+        <v>0.05000823961567771</v>
+      </c>
+      <c r="CG6">
+        <v>0.1055057747366921</v>
+      </c>
+      <c r="CH6">
+        <v>0.08963276131892083</v>
+      </c>
+      <c r="CI6">
+        <v>0.16410120105299</v>
+      </c>
+      <c r="CJ6">
+        <v>0.06443473234847068</v>
+      </c>
+      <c r="CK6">
+        <v>0.03211869141930114</v>
+      </c>
+      <c r="CL6">
+        <v>0.0823041522351001</v>
+      </c>
+      <c r="CM6">
+        <v>0.6424599220683668</v>
+      </c>
+      <c r="CN6">
+        <v>1.376296377786042</v>
+      </c>
+      <c r="CO6">
+        <v>0.02851563465338379</v>
+      </c>
+      <c r="CP6">
+        <v>20</v>
+      </c>
+      <c r="CQ6">
+        <v>20</v>
+      </c>
+      <c r="CR6">
+        <v>20</v>
+      </c>
+      <c r="CS6">
+        <v>20</v>
+      </c>
+      <c r="CT6">
+        <v>20</v>
+      </c>
+      <c r="CU6">
+        <v>20</v>
+      </c>
+      <c r="CV6">
+        <v>20</v>
+      </c>
+      <c r="CW6">
+        <v>20</v>
+      </c>
+      <c r="CX6">
+        <v>20</v>
+      </c>
+      <c r="CY6">
+        <v>20</v>
+      </c>
+      <c r="CZ6">
+        <v>20</v>
+      </c>
+      <c r="DA6">
+        <v>20</v>
+      </c>
+      <c r="DB6">
+        <v>20</v>
+      </c>
+      <c r="DC6">
+        <v>20</v>
+      </c>
+      <c r="DD6">
+        <v>20</v>
+      </c>
+      <c r="DE6">
+        <v>20</v>
+      </c>
+      <c r="DF6">
+        <v>20</v>
+      </c>
+      <c r="DG6">
+        <v>20</v>
+      </c>
+      <c r="DH6">
+        <v>20</v>
+      </c>
+      <c r="DI6">
+        <v>20</v>
+      </c>
+      <c r="DJ6">
+        <v>20</v>
+      </c>
+      <c r="DK6">
+        <v>20</v>
+      </c>
+      <c r="DL6">
+        <v>20</v>
+      </c>
+      <c r="DM6">
+        <v>20</v>
+      </c>
+      <c r="DN6">
+        <v>20</v>
+      </c>
+      <c r="DO6">
+        <v>20</v>
+      </c>
+      <c r="DP6">
+        <v>20</v>
+      </c>
+      <c r="DQ6">
+        <v>20</v>
+      </c>
+      <c r="DR6">
+        <v>20</v>
+      </c>
+      <c r="DS6">
+        <v>20</v>
+      </c>
+      <c r="DT6">
+        <v>20</v>
+      </c>
+      <c r="DU6">
+        <v>20</v>
+      </c>
+      <c r="DV6">
+        <v>20</v>
+      </c>
+      <c r="DW6">
+        <v>20</v>
+      </c>
+      <c r="DX6">
+        <v>20</v>
+      </c>
+      <c r="DY6">
+        <v>20</v>
+      </c>
+      <c r="DZ6">
+        <v>20</v>
+      </c>
+      <c r="EA6">
+        <v>20</v>
+      </c>
+      <c r="EB6">
+        <v>20</v>
+      </c>
+      <c r="EC6">
+        <v>20</v>
+      </c>
+      <c r="ED6">
+        <v>20</v>
+      </c>
+      <c r="EE6">
+        <v>20</v>
+      </c>
+      <c r="EF6">
+        <v>20</v>
+      </c>
+      <c r="EG6">
+        <v>20</v>
+      </c>
+      <c r="EH6">
+        <v>20</v>
+      </c>
+      <c r="EI6">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:139">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>5.869818127110913</v>
+        <v>5.203219947394869</v>
       </c>
       <c r="C7">
-        <v>0.004365526783323638</v>
+        <v>11.30349034589892</v>
       </c>
       <c r="D7">
-        <v>33.8520916268828</v>
+        <v>0.03031853397274725</v>
       </c>
       <c r="E7">
-        <v>30.09738361068465</v>
+        <v>1.784036072635861</v>
       </c>
       <c r="F7">
-        <v>0.02720788497667255</v>
+        <v>1.596685254249987</v>
       </c>
       <c r="G7">
-        <v>15.20600645576425</v>
+        <v>248394.8732945544</v>
+      </c>
+      <c r="H7">
+        <v>2.308298114333415E-10</v>
       </c>
       <c r="I7">
-        <v>0.02687762693431496</v>
+        <v>39.18972533479117</v>
       </c>
       <c r="J7">
-        <v>0.02518852892583923</v>
+        <v>0.03964260361437934</v>
       </c>
       <c r="K7">
-        <v>5.551510286331177</v>
+        <v>72.72451598367392</v>
       </c>
       <c r="L7">
-        <v>0.3140963077545166</v>
+        <v>13.63653723464261</v>
       </c>
       <c r="M7">
-        <v>11.2085373878479</v>
+        <v>3.694355112514281E-05</v>
       </c>
       <c r="N7">
-        <v>0.6506728649139404</v>
+        <v>1.09759854476111</v>
       </c>
       <c r="O7">
-        <v>2.005566644668579</v>
+        <v>4252.303910339765</v>
       </c>
       <c r="P7">
-        <v>0.5045799255371094</v>
+        <v>24.20690070988929</v>
+      </c>
+      <c r="Q7">
+        <v>0.01628352397474118</v>
       </c>
       <c r="R7">
-        <v>4.453920030593872</v>
+        <v>11.80270833770581</v>
       </c>
       <c r="S7">
-        <v>0.2513890266418457</v>
+        <v>317.192029066421</v>
       </c>
       <c r="T7">
-        <v>0.4049544870874877</v>
+        <v>0.01222481752109852</v>
       </c>
       <c r="U7">
-        <v>0.004638244602994467</v>
+        <v>0.4632080720577408</v>
       </c>
       <c r="V7">
-        <v>4.357795316540546</v>
+        <v>0.01720072656190799</v>
       </c>
       <c r="W7">
-        <v>2.057185842651076</v>
+        <v>0.5462861102522676</v>
       </c>
       <c r="X7">
-        <v>0.002443390320631324</v>
+        <v>2.772550773129311</v>
       </c>
       <c r="Y7">
-        <v>3.436261058765619</v>
+        <v>2.841694581508636</v>
+      </c>
+      <c r="Z7">
+        <v>0.01365306377410889</v>
       </c>
       <c r="AA7">
-        <v>0.002676830647248244</v>
+        <v>0.002990317344665527</v>
       </c>
       <c r="AB7">
-        <v>0.00597853046546059</v>
+        <v>0.005276012420654297</v>
       </c>
       <c r="AC7">
-        <v>0.005510403907066083</v>
+        <v>0.1858782887458801</v>
       </c>
       <c r="AD7">
-        <v>0.01401064510172409</v>
+        <v>0.005507743358612061</v>
       </c>
       <c r="AE7">
-        <v>0.2717600356994018</v>
+        <v>1.683349072933197</v>
       </c>
       <c r="AF7">
-        <v>0.04253939593144548</v>
+        <v>1.741450273990631</v>
       </c>
       <c r="AG7">
-        <v>0.01608929915168754</v>
+        <v>0.009342420101165771</v>
       </c>
       <c r="AH7">
-        <v>0.0506284806293098</v>
+        <v>0.008766245841979981</v>
+      </c>
+      <c r="AI7">
+        <v>0.2193218350410461</v>
       </c>
       <c r="AJ7">
-        <v>0.07283616538930364</v>
+        <v>0.009695339202880859</v>
       </c>
       <c r="AK7">
-        <v>0.0004322307576272739</v>
+        <v>0.01417258977890015</v>
       </c>
       <c r="AL7">
-        <v>5</v>
+        <v>0.01387892961502075</v>
       </c>
       <c r="AM7">
-        <v>5</v>
+        <v>0.005163836479187012</v>
       </c>
       <c r="AN7">
-        <v>5</v>
+        <v>0.0999082088470459</v>
       </c>
       <c r="AO7">
-        <v>5</v>
+        <v>0.003261959552764892</v>
       </c>
       <c r="AP7">
-        <v>5</v>
+        <v>0.09599307775497437</v>
       </c>
       <c r="AQ7">
-        <v>5</v>
+        <v>0.0007464528083801269</v>
+      </c>
+      <c r="AR7">
+        <v>0.04239058494567871</v>
       </c>
       <c r="AS7">
-        <v>5</v>
+        <v>0.3338904976844788</v>
       </c>
       <c r="AT7">
-        <v>5</v>
+        <v>0.3666702747344971</v>
       </c>
       <c r="AU7">
-        <v>5</v>
+        <v>0.002563464641571045</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>0.3290457090643301</v>
       </c>
       <c r="AW7">
-        <v>5</v>
+        <v>0.6740911969022177</v>
       </c>
       <c r="AX7">
-        <v>5</v>
+        <v>0.02673116870881187</v>
       </c>
       <c r="AY7">
-        <v>5</v>
+        <v>0.1949483752406572</v>
       </c>
       <c r="AZ7">
-        <v>5</v>
+        <v>0.07265306664581093</v>
+      </c>
+      <c r="BA7">
+        <v>140754.1344778921</v>
       </c>
       <c r="BB7">
-        <v>5</v>
+        <v>4.310229517609536E-10</v>
       </c>
       <c r="BC7">
-        <v>5</v>
+        <v>31.24382453694864</v>
+      </c>
+      <c r="BD7">
+        <v>0.004881277640201387</v>
+      </c>
+      <c r="BE7">
+        <v>12.35408758596324</v>
+      </c>
+      <c r="BF7">
+        <v>1.578285571559399</v>
+      </c>
+      <c r="BG7">
+        <v>6.269335874317075E-06</v>
+      </c>
+      <c r="BH7">
+        <v>0.1251570864593047</v>
+      </c>
+      <c r="BI7">
+        <v>4173.746259575984</v>
+      </c>
+      <c r="BJ7">
+        <v>5.871338171187205</v>
+      </c>
+      <c r="BK7">
+        <v>0.001169258019736854</v>
+      </c>
+      <c r="BL7">
+        <v>2.686989120900462</v>
+      </c>
+      <c r="BM7">
+        <v>21.42905896798756</v>
+      </c>
+      <c r="BN7">
+        <v>0.005515682380417056</v>
+      </c>
+      <c r="BO7">
+        <v>0.0491139909666023</v>
+      </c>
+      <c r="BP7">
+        <v>0.002748993964584007</v>
+      </c>
+      <c r="BQ7">
+        <v>0.02987275853365961</v>
+      </c>
+      <c r="BR7">
+        <v>1.069640354512595</v>
+      </c>
+      <c r="BS7">
+        <v>0.9391797055646685</v>
+      </c>
+      <c r="BT7">
+        <v>0.0005011363671376289</v>
+      </c>
+      <c r="BU7">
+        <v>0.0002180097179088415</v>
+      </c>
+      <c r="BV7">
+        <v>0.0008652694732040898</v>
+      </c>
+      <c r="BW7">
+        <v>0.08745075102578059</v>
+      </c>
+      <c r="BX7">
+        <v>0.002659266962274331</v>
+      </c>
+      <c r="BY7">
+        <v>0.1155242445783648</v>
+      </c>
+      <c r="BZ7">
+        <v>5.802926971274455</v>
+      </c>
+      <c r="CA7">
+        <v>0.00211133938000081</v>
+      </c>
+      <c r="CB7">
+        <v>0.0005062299236311856</v>
+      </c>
+      <c r="CC7">
+        <v>0.114306736525263</v>
+      </c>
+      <c r="CD7">
+        <v>0.001941412731338735</v>
+      </c>
+      <c r="CE7">
+        <v>0.01712767596260693</v>
+      </c>
+      <c r="CF7">
+        <v>0.005206410461626476</v>
+      </c>
+      <c r="CG7">
+        <v>0.001126664775591592</v>
+      </c>
+      <c r="CH7">
+        <v>0.05832696386026361</v>
+      </c>
+      <c r="CI7">
+        <v>0.0001315720719308454</v>
+      </c>
+      <c r="CJ7">
+        <v>0.03122431145404892</v>
+      </c>
+      <c r="CK7">
+        <v>9.625235359936581E-05</v>
+      </c>
+      <c r="CL7">
+        <v>0.01411846069973433</v>
+      </c>
+      <c r="CM7">
+        <v>0.4904283272931581</v>
+      </c>
+      <c r="CN7">
+        <v>0.1843644959049091</v>
+      </c>
+      <c r="CO7">
+        <v>0.0001459574455902138</v>
+      </c>
+      <c r="CP7">
+        <v>20</v>
+      </c>
+      <c r="CQ7">
+        <v>20</v>
+      </c>
+      <c r="CR7">
+        <v>20</v>
+      </c>
+      <c r="CS7">
+        <v>20</v>
+      </c>
+      <c r="CT7">
+        <v>20</v>
+      </c>
+      <c r="CU7">
+        <v>20</v>
+      </c>
+      <c r="CV7">
+        <v>20</v>
+      </c>
+      <c r="CW7">
+        <v>20</v>
+      </c>
+      <c r="CX7">
+        <v>20</v>
+      </c>
+      <c r="CY7">
+        <v>20</v>
+      </c>
+      <c r="CZ7">
+        <v>20</v>
+      </c>
+      <c r="DA7">
+        <v>20</v>
+      </c>
+      <c r="DB7">
+        <v>20</v>
+      </c>
+      <c r="DC7">
+        <v>20</v>
+      </c>
+      <c r="DD7">
+        <v>20</v>
+      </c>
+      <c r="DE7">
+        <v>20</v>
+      </c>
+      <c r="DF7">
+        <v>20</v>
+      </c>
+      <c r="DG7">
+        <v>20</v>
+      </c>
+      <c r="DH7">
+        <v>20</v>
+      </c>
+      <c r="DI7">
+        <v>20</v>
+      </c>
+      <c r="DJ7">
+        <v>20</v>
+      </c>
+      <c r="DK7">
+        <v>20</v>
+      </c>
+      <c r="DL7">
+        <v>20</v>
+      </c>
+      <c r="DM7">
+        <v>20</v>
+      </c>
+      <c r="DN7">
+        <v>20</v>
+      </c>
+      <c r="DO7">
+        <v>20</v>
+      </c>
+      <c r="DP7">
+        <v>20</v>
+      </c>
+      <c r="DQ7">
+        <v>20</v>
+      </c>
+      <c r="DR7">
+        <v>20</v>
+      </c>
+      <c r="DS7">
+        <v>20</v>
+      </c>
+      <c r="DT7">
+        <v>20</v>
+      </c>
+      <c r="DU7">
+        <v>20</v>
+      </c>
+      <c r="DV7">
+        <v>20</v>
+      </c>
+      <c r="DW7">
+        <v>20</v>
+      </c>
+      <c r="DX7">
+        <v>20</v>
+      </c>
+      <c r="DY7">
+        <v>20</v>
+      </c>
+      <c r="DZ7">
+        <v>20</v>
+      </c>
+      <c r="EA7">
+        <v>20</v>
+      </c>
+      <c r="EB7">
+        <v>20</v>
+      </c>
+      <c r="EC7">
+        <v>20</v>
+      </c>
+      <c r="ED7">
+        <v>20</v>
+      </c>
+      <c r="EE7">
+        <v>20</v>
+      </c>
+      <c r="EF7">
+        <v>20</v>
+      </c>
+      <c r="EG7">
+        <v>20</v>
+      </c>
+      <c r="EH7">
+        <v>20</v>
+      </c>
+      <c r="EI7">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:139">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>5.17811698474932</v>
+        <v>5.253252355314074</v>
       </c>
       <c r="C8">
-        <v>1.881824174149139E-05</v>
+        <v>26.77229301278584</v>
       </c>
       <c r="D8">
-        <v>15.15455376714492</v>
+        <v>0.1082328201410228</v>
       </c>
       <c r="E8">
-        <v>22.35371342864789</v>
+        <v>2.125316661223893</v>
       </c>
       <c r="F8">
-        <v>0.01653966828221324</v>
+        <v>3.747318858479152</v>
       </c>
       <c r="G8">
-        <v>12.14571841118196</v>
+        <v>1138070.275594083</v>
       </c>
       <c r="H8">
-        <v>0.01491940115817399</v>
+        <v>0.1422198917605224</v>
       </c>
       <c r="I8">
-        <v>0.0167676275359714</v>
+        <v>41.33641159512101</v>
       </c>
       <c r="J8">
-        <v>0.02200846420523248</v>
+        <v>0.06589671821269853</v>
       </c>
       <c r="K8">
-        <v>2.435110998153687</v>
+        <v>186.5408176735485</v>
       </c>
       <c r="L8">
-        <v>0.002549505233764648</v>
+        <v>47.93201979678319</v>
       </c>
       <c r="M8">
-        <v>0.2104446411132813</v>
+        <v>9.350914442736844E-05</v>
       </c>
       <c r="N8">
-        <v>0.6756912231445312</v>
+        <v>1.170641678849127</v>
       </c>
       <c r="O8">
-        <v>0.3619906425476074</v>
+        <v>4352.697580493125</v>
       </c>
       <c r="P8">
-        <v>0.003362083435058594</v>
+        <v>53.53769797753311</v>
       </c>
       <c r="Q8">
-        <v>0.001292228698730469</v>
+        <v>0.01622006952691371</v>
       </c>
       <c r="R8">
-        <v>0.0751530647277832</v>
+        <v>18.03106520629323</v>
       </c>
       <c r="S8">
-        <v>0.004308509826660156</v>
+        <v>340.7973838223493</v>
       </c>
       <c r="T8">
-        <v>0.2822548758345065</v>
+        <v>0.02599736053021171</v>
       </c>
       <c r="U8">
-        <v>9.772440406385279E-06</v>
+        <v>0.5328231578652146</v>
       </c>
       <c r="V8">
-        <v>1.410133348237296</v>
+        <v>0.01794669234778664</v>
       </c>
       <c r="W8">
-        <v>3.405343750965177</v>
+        <v>0.6109401383135875</v>
       </c>
       <c r="X8">
-        <v>0.0009255699492967337</v>
+        <v>162.9490690820693</v>
       </c>
       <c r="Y8">
-        <v>1.832580126600114</v>
+        <v>4.647706484794616</v>
       </c>
       <c r="Z8">
-        <v>0.008167709892161654</v>
+        <v>0.07160221338272095</v>
       </c>
       <c r="AA8">
-        <v>0.002188416871058535</v>
+        <v>0.004622185230255127</v>
       </c>
       <c r="AB8">
-        <v>0.008298142156496597</v>
+        <v>0.02643895149230957</v>
       </c>
       <c r="AC8">
-        <v>1.232635298694985</v>
+        <v>3.52138352394104</v>
       </c>
       <c r="AD8">
-        <v>0.0004085049838467801</v>
+        <v>0.01433634757995605</v>
       </c>
       <c r="AE8">
-        <v>0.04315835738730542</v>
+        <v>51.34521962404251</v>
       </c>
       <c r="AF8">
-        <v>1.498316931613084</v>
+        <v>26.98867964744568</v>
       </c>
       <c r="AG8">
-        <v>0.5905646805361788</v>
+        <v>0.0140803337097168</v>
       </c>
       <c r="AH8">
-        <v>5.357886682848714E-05</v>
+        <v>0.02553362846374512</v>
       </c>
       <c r="AI8">
-        <v>0.000122649501665425</v>
+        <v>37.26353435516357</v>
       </c>
       <c r="AJ8">
-        <v>0.09602274015795893</v>
+        <v>0.01759384870529175</v>
       </c>
       <c r="AK8">
-        <v>0.001018650729843145</v>
+        <v>0.06880121231079102</v>
       </c>
       <c r="AL8">
-        <v>5</v>
+        <v>0.0158760666847229</v>
       </c>
       <c r="AM8">
-        <v>5</v>
+        <v>0.2684588074684143</v>
       </c>
       <c r="AN8">
-        <v>5</v>
+        <v>0.1484591245651245</v>
       </c>
       <c r="AO8">
-        <v>5</v>
+        <v>0.004682219028472901</v>
       </c>
       <c r="AP8">
-        <v>5</v>
+        <v>0.1291261076927185</v>
       </c>
       <c r="AQ8">
-        <v>5</v>
+        <v>0.001036500930786133</v>
       </c>
       <c r="AR8">
-        <v>5</v>
+        <v>0.3196648597717285</v>
       </c>
       <c r="AS8">
-        <v>5</v>
+        <v>1.405450463294983</v>
       </c>
       <c r="AT8">
-        <v>5</v>
+        <v>7.654523098468781</v>
       </c>
       <c r="AU8">
-        <v>5</v>
+        <v>0.003158986568450928</v>
       </c>
       <c r="AV8">
-        <v>5</v>
+        <v>0.4135100373231226</v>
       </c>
       <c r="AW8">
-        <v>5</v>
+        <v>2.31429260137971</v>
       </c>
       <c r="AX8">
-        <v>5</v>
+        <v>0.04255607570500763</v>
       </c>
       <c r="AY8">
-        <v>5</v>
+        <v>0.5198071572611066</v>
       </c>
       <c r="AZ8">
-        <v>5</v>
+        <v>0.6366416874478508</v>
       </c>
       <c r="BA8">
-        <v>5</v>
+        <v>220855.3769752576</v>
       </c>
       <c r="BB8">
-        <v>5</v>
+        <v>0.07582499406555832</v>
       </c>
       <c r="BC8">
-        <v>5</v>
+        <v>30.58024939920464</v>
+      </c>
+      <c r="BD8">
+        <v>0.01067266440458824</v>
+      </c>
+      <c r="BE8">
+        <v>24.35873795267049</v>
+      </c>
+      <c r="BF8">
+        <v>6.516304964069667</v>
+      </c>
+      <c r="BG8">
+        <v>1.959039734995061E-05</v>
+      </c>
+      <c r="BH8">
+        <v>0.1825288772350694</v>
+      </c>
+      <c r="BI8">
+        <v>4267.764174936601</v>
+      </c>
+      <c r="BJ8">
+        <v>10.22769527612575</v>
+      </c>
+      <c r="BK8">
+        <v>0.001293360737536037</v>
+      </c>
+      <c r="BL8">
+        <v>3.779090640489602</v>
+      </c>
+      <c r="BM8">
+        <v>23.48709156832075</v>
+      </c>
+      <c r="BN8">
+        <v>0.02603908682546599</v>
+      </c>
+      <c r="BO8">
+        <v>0.07360433546600936</v>
+      </c>
+      <c r="BP8">
+        <v>0.002948668503289046</v>
+      </c>
+      <c r="BQ8">
+        <v>0.05186097756450229</v>
+      </c>
+      <c r="BR8">
+        <v>44.93516235890776</v>
+      </c>
+      <c r="BS8">
+        <v>2.009071140737638</v>
+      </c>
+      <c r="BT8">
+        <v>0.04617712012299347</v>
+      </c>
+      <c r="BU8">
+        <v>0.001285615286514891</v>
+      </c>
+      <c r="BV8">
+        <v>0.008441066007594783</v>
+      </c>
+      <c r="BW8">
+        <v>2.124807950314568</v>
+      </c>
+      <c r="BX8">
+        <v>0.004989630478084872</v>
+      </c>
+      <c r="BY8">
+        <v>41.54643073724764</v>
+      </c>
+      <c r="BZ8">
+        <v>6.686951123510121</v>
+      </c>
+      <c r="CA8">
+        <v>0.005420434735641186</v>
+      </c>
+      <c r="CB8">
+        <v>0.01428716901014571</v>
+      </c>
+      <c r="CC8">
+        <v>12.65177613277383</v>
+      </c>
+      <c r="CD8">
+        <v>0.003814971857065935</v>
+      </c>
+      <c r="CE8">
+        <v>0.03133047744828651</v>
+      </c>
+      <c r="CF8">
+        <v>0.00905310637879145</v>
+      </c>
+      <c r="CG8">
+        <v>1.135310314432137</v>
+      </c>
+      <c r="CH8">
+        <v>0.01874563488071514</v>
+      </c>
+      <c r="CI8">
+        <v>0.0009009622092619554</v>
+      </c>
+      <c r="CJ8">
+        <v>0.06906319251093307</v>
+      </c>
+      <c r="CK8">
+        <v>0.0001545507944309307</v>
+      </c>
+      <c r="CL8">
+        <v>0.1830950608809121</v>
+      </c>
+      <c r="CM8">
+        <v>0.5166049757911343</v>
+      </c>
+      <c r="CN8">
+        <v>3.742537467739878</v>
+      </c>
+      <c r="CO8">
+        <v>0.0004497589257924003</v>
+      </c>
+      <c r="CP8">
+        <v>20</v>
+      </c>
+      <c r="CQ8">
+        <v>20</v>
+      </c>
+      <c r="CR8">
+        <v>20</v>
+      </c>
+      <c r="CS8">
+        <v>20</v>
+      </c>
+      <c r="CT8">
+        <v>20</v>
+      </c>
+      <c r="CU8">
+        <v>20</v>
+      </c>
+      <c r="CV8">
+        <v>20</v>
+      </c>
+      <c r="CW8">
+        <v>20</v>
+      </c>
+      <c r="CX8">
+        <v>20</v>
+      </c>
+      <c r="CY8">
+        <v>20</v>
+      </c>
+      <c r="CZ8">
+        <v>20</v>
+      </c>
+      <c r="DA8">
+        <v>20</v>
+      </c>
+      <c r="DB8">
+        <v>20</v>
+      </c>
+      <c r="DC8">
+        <v>20</v>
+      </c>
+      <c r="DD8">
+        <v>20</v>
+      </c>
+      <c r="DE8">
+        <v>20</v>
+      </c>
+      <c r="DF8">
+        <v>20</v>
+      </c>
+      <c r="DG8">
+        <v>20</v>
+      </c>
+      <c r="DH8">
+        <v>20</v>
+      </c>
+      <c r="DI8">
+        <v>20</v>
+      </c>
+      <c r="DJ8">
+        <v>20</v>
+      </c>
+      <c r="DK8">
+        <v>20</v>
+      </c>
+      <c r="DL8">
+        <v>20</v>
+      </c>
+      <c r="DM8">
+        <v>20</v>
+      </c>
+      <c r="DN8">
+        <v>20</v>
+      </c>
+      <c r="DO8">
+        <v>20</v>
+      </c>
+      <c r="DP8">
+        <v>20</v>
+      </c>
+      <c r="DQ8">
+        <v>20</v>
+      </c>
+      <c r="DR8">
+        <v>20</v>
+      </c>
+      <c r="DS8">
+        <v>20</v>
+      </c>
+      <c r="DT8">
+        <v>20</v>
+      </c>
+      <c r="DU8">
+        <v>20</v>
+      </c>
+      <c r="DV8">
+        <v>20</v>
+      </c>
+      <c r="DW8">
+        <v>20</v>
+      </c>
+      <c r="DX8">
+        <v>20</v>
+      </c>
+      <c r="DY8">
+        <v>20</v>
+      </c>
+      <c r="DZ8">
+        <v>20</v>
+      </c>
+      <c r="EA8">
+        <v>20</v>
+      </c>
+      <c r="EB8">
+        <v>20</v>
+      </c>
+      <c r="EC8">
+        <v>20</v>
+      </c>
+      <c r="ED8">
+        <v>20</v>
+      </c>
+      <c r="EE8">
+        <v>20</v>
+      </c>
+      <c r="EF8">
+        <v>20</v>
+      </c>
+      <c r="EG8">
+        <v>20</v>
+      </c>
+      <c r="EH8">
+        <v>20</v>
+      </c>
+      <c r="EI8">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:139">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>5.406334216359829</v>
+        <v>4.585750499999999</v>
       </c>
       <c r="C9">
-        <v>0.0009449566107142627</v>
+        <v>12.187156</v>
       </c>
       <c r="D9">
-        <v>49.26780113620303</v>
+        <v>0.2457465500000001</v>
       </c>
       <c r="E9">
-        <v>55.03449893079902</v>
-      </c>
-      <c r="F9">
-        <v>0.01597958989423692</v>
+        <v>38.1801415</v>
       </c>
       <c r="G9">
-        <v>19.66852916161095</v>
+        <v>1296803.9</v>
       </c>
       <c r="H9">
-        <v>0.01592736415720813</v>
+        <v>3.697912799999999</v>
       </c>
       <c r="I9">
-        <v>0.01771846647720666</v>
+        <v>292.9878</v>
       </c>
       <c r="J9">
-        <v>0.02253348670401101</v>
+        <v>0.02865221</v>
       </c>
       <c r="K9">
-        <v>5.245825672149659</v>
+        <v>280.51085</v>
       </c>
       <c r="L9">
-        <v>0.009679794311523438</v>
-      </c>
-      <c r="M9">
-        <v>48.54952068328858</v>
+        <v>338.4581</v>
       </c>
       <c r="N9">
-        <v>1.420648574829102</v>
+        <v>0.9290675</v>
       </c>
       <c r="O9">
-        <v>0.194595193862915</v>
+        <v>4077.8013</v>
       </c>
       <c r="P9">
-        <v>0.00795297622680664</v>
+        <v>22.755835</v>
       </c>
       <c r="Q9">
-        <v>0.001764249801635742</v>
+        <v>0.02146992</v>
       </c>
       <c r="R9">
-        <v>2.12272047996521</v>
+        <v>9.7129075</v>
       </c>
       <c r="S9">
-        <v>0.007015657424926758</v>
+        <v>1.941020425E+63</v>
       </c>
       <c r="T9">
-        <v>0.623868922668176</v>
+        <v>0.010249307</v>
       </c>
       <c r="U9">
-        <v>0.001694665982110152</v>
+        <v>0.5124846000000001</v>
       </c>
       <c r="V9">
-        <v>9.390693960950161</v>
-      </c>
-      <c r="W9">
-        <v>10.94728349683946</v>
+        <v>0.01723625</v>
       </c>
       <c r="X9">
-        <v>0.0007449313815149607</v>
+        <v>236.17865</v>
       </c>
       <c r="Y9">
-        <v>3.903633002502727</v>
+        <v>30.576315</v>
       </c>
       <c r="Z9">
-        <v>0.007422383848505413</v>
+        <v>33.1467845</v>
       </c>
       <c r="AA9">
-        <v>0.002983810174238172</v>
+        <v>0.01910215</v>
       </c>
       <c r="AB9">
-        <v>0.007043960204670354</v>
-      </c>
-      <c r="AC9">
-        <v>2.292900697589385</v>
+        <v>0.4902976500000001</v>
       </c>
       <c r="AD9">
-        <v>0.001753683024889801</v>
+        <v>0.42013045</v>
       </c>
       <c r="AE9">
-        <v>13.36995974271428</v>
+        <v>21.7993785</v>
       </c>
       <c r="AF9">
-        <v>3.13826634703591</v>
+        <v>3.083189499999999</v>
       </c>
       <c r="AG9">
-        <v>0.01124692925072562</v>
+        <v>0.2229583</v>
       </c>
       <c r="AH9">
-        <v>0.001919344250487447</v>
+        <v>0.10821365</v>
       </c>
       <c r="AI9">
-        <v>0.000211676857689027</v>
-      </c>
-      <c r="AJ9">
-        <v>1.225681484621426</v>
+        <v>4.700747000000001</v>
       </c>
       <c r="AK9">
-        <v>0.002903808101858168</v>
+        <v>0.8416884000000001</v>
       </c>
       <c r="AL9">
-        <v>5</v>
+        <v>0.06034850000000001</v>
       </c>
       <c r="AM9">
-        <v>5</v>
+        <v>5.595596800000001</v>
       </c>
       <c r="AN9">
-        <v>5</v>
+        <v>0.29326115</v>
       </c>
       <c r="AO9">
-        <v>5</v>
+        <v>1.8623548</v>
       </c>
       <c r="AP9">
-        <v>5</v>
+        <v>34.2067765</v>
       </c>
       <c r="AQ9">
-        <v>5</v>
+        <v>0.005978449999999999</v>
       </c>
       <c r="AR9">
-        <v>5</v>
+        <v>1.9971107</v>
       </c>
       <c r="AS9">
-        <v>5</v>
-      </c>
-      <c r="AT9">
-        <v>5</v>
+        <v>1.345658</v>
       </c>
       <c r="AU9">
-        <v>5</v>
+        <v>0.0265951</v>
       </c>
       <c r="AV9">
-        <v>5</v>
+        <v>0.3065716799409924</v>
       </c>
       <c r="AW9">
-        <v>5</v>
+        <v>1.714298872491393</v>
       </c>
       <c r="AX9">
-        <v>5</v>
+        <v>0.004754541678891443</v>
       </c>
       <c r="AY9">
-        <v>5</v>
-      </c>
-      <c r="AZ9">
-        <v>5</v>
+        <v>159.4411642275104</v>
       </c>
       <c r="BA9">
-        <v>5</v>
+        <v>315118.044935027</v>
       </c>
       <c r="BB9">
-        <v>5</v>
+        <v>2.921809602648612</v>
       </c>
       <c r="BC9">
-        <v>5</v>
+        <v>4.095978703172409</v>
+      </c>
+      <c r="BD9">
+        <v>0.003919679411689312</v>
+      </c>
+      <c r="BE9">
+        <v>19.02729911490054</v>
+      </c>
+      <c r="BF9">
+        <v>25.27912101632284</v>
+      </c>
+      <c r="BH9">
+        <v>0.1003429317991688</v>
+      </c>
+      <c r="BI9">
+        <v>4308.214925336859</v>
+      </c>
+      <c r="BJ9">
+        <v>9.179524509258579</v>
+      </c>
+      <c r="BK9">
+        <v>0.0009736652589165604</v>
+      </c>
+      <c r="BL9">
+        <v>3.260840197220528</v>
+      </c>
+      <c r="BM9">
+        <v>8.676387039582986E+63</v>
+      </c>
+      <c r="BN9">
+        <v>0.004601340465563555</v>
+      </c>
+      <c r="BO9">
+        <v>0.0435802528776992</v>
+      </c>
+      <c r="BP9">
+        <v>0.001468776941790973</v>
+      </c>
+      <c r="BR9">
+        <v>35.09067157533316</v>
+      </c>
+      <c r="BS9">
+        <v>16.19378393339068</v>
+      </c>
+      <c r="BT9">
+        <v>21.66759836521283</v>
+      </c>
+      <c r="BU9">
+        <v>0.009937247825466407</v>
+      </c>
+      <c r="BV9">
+        <v>0.5713882381139608</v>
+      </c>
+      <c r="BX9">
+        <v>0.1733068013751685</v>
+      </c>
+      <c r="BY9">
+        <v>17.50708070180336</v>
+      </c>
+      <c r="BZ9">
+        <v>1.051949443569439</v>
+      </c>
+      <c r="CA9">
+        <v>0.06286591710190154</v>
+      </c>
+      <c r="CB9">
+        <v>0.08321324673915237</v>
+      </c>
+      <c r="CC9">
+        <v>1.427649892490231</v>
+      </c>
+      <c r="CE9">
+        <v>0.3680570456984252</v>
+      </c>
+      <c r="CF9">
+        <v>0.02966527684453927</v>
+      </c>
+      <c r="CG9">
+        <v>9.241494121575602</v>
+      </c>
+      <c r="CH9">
+        <v>0.008753239257705197</v>
+      </c>
+      <c r="CI9">
+        <v>1.115151175075785</v>
+      </c>
+      <c r="CJ9">
+        <v>29.85874363022422</v>
+      </c>
+      <c r="CK9">
+        <v>0.002808667102400223</v>
+      </c>
+      <c r="CL9">
+        <v>1.600678570473657</v>
+      </c>
+      <c r="CM9">
+        <v>0.3332571401943645</v>
+      </c>
+      <c r="CO9">
+        <v>0.01256810470952059</v>
+      </c>
+      <c r="CP9">
+        <v>20</v>
+      </c>
+      <c r="CQ9">
+        <v>20</v>
+      </c>
+      <c r="CR9">
+        <v>20</v>
+      </c>
+      <c r="CS9">
+        <v>20</v>
+      </c>
+      <c r="CU9">
+        <v>20</v>
+      </c>
+      <c r="CV9">
+        <v>20</v>
+      </c>
+      <c r="CW9">
+        <v>20</v>
+      </c>
+      <c r="CX9">
+        <v>20</v>
+      </c>
+      <c r="CY9">
+        <v>20</v>
+      </c>
+      <c r="CZ9">
+        <v>20</v>
+      </c>
+      <c r="DB9">
+        <v>20</v>
+      </c>
+      <c r="DC9">
+        <v>20</v>
+      </c>
+      <c r="DD9">
+        <v>20</v>
+      </c>
+      <c r="DE9">
+        <v>20</v>
+      </c>
+      <c r="DF9">
+        <v>20</v>
+      </c>
+      <c r="DG9">
+        <v>20</v>
+      </c>
+      <c r="DH9">
+        <v>20</v>
+      </c>
+      <c r="DI9">
+        <v>20</v>
+      </c>
+      <c r="DJ9">
+        <v>20</v>
+      </c>
+      <c r="DL9">
+        <v>20</v>
+      </c>
+      <c r="DM9">
+        <v>20</v>
+      </c>
+      <c r="DN9">
+        <v>20</v>
+      </c>
+      <c r="DO9">
+        <v>20</v>
+      </c>
+      <c r="DP9">
+        <v>20</v>
+      </c>
+      <c r="DR9">
+        <v>20</v>
+      </c>
+      <c r="DS9">
+        <v>20</v>
+      </c>
+      <c r="DT9">
+        <v>20</v>
+      </c>
+      <c r="DU9">
+        <v>20</v>
+      </c>
+      <c r="DV9">
+        <v>20</v>
+      </c>
+      <c r="DW9">
+        <v>20</v>
+      </c>
+      <c r="DY9">
+        <v>20</v>
+      </c>
+      <c r="DZ9">
+        <v>20</v>
+      </c>
+      <c r="EA9">
+        <v>20</v>
+      </c>
+      <c r="EB9">
+        <v>20</v>
+      </c>
+      <c r="EC9">
+        <v>20</v>
+      </c>
+      <c r="ED9">
+        <v>20</v>
+      </c>
+      <c r="EE9">
+        <v>20</v>
+      </c>
+      <c r="EF9">
+        <v>20</v>
+      </c>
+      <c r="EG9">
+        <v>20</v>
+      </c>
+      <c r="EI9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:139">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>5.125935750000001</v>
+      </c>
+      <c r="C10">
+        <v>20.19469849999999</v>
+      </c>
+      <c r="D10">
+        <v>0.0296379</v>
+      </c>
+      <c r="E10">
+        <v>1.4835313</v>
+      </c>
+      <c r="F10">
+        <v>2.01100135</v>
+      </c>
+      <c r="G10">
+        <v>67748.8152864</v>
+      </c>
+      <c r="H10">
+        <v>0.0009083999999999999</v>
+      </c>
+      <c r="I10">
+        <v>20.71454635</v>
+      </c>
+      <c r="J10">
+        <v>0.03161825</v>
+      </c>
+      <c r="K10">
+        <v>68.34926119999999</v>
+      </c>
+      <c r="L10">
+        <v>16.293191</v>
+      </c>
+      <c r="M10">
+        <v>5.570000000000001E-05</v>
+      </c>
+      <c r="N10">
+        <v>0.96228835</v>
+      </c>
+      <c r="O10">
+        <v>4346.0638259</v>
+      </c>
+      <c r="P10">
+        <v>19.88195445</v>
+      </c>
+      <c r="Q10">
+        <v>0.01852085</v>
+      </c>
+      <c r="R10">
+        <v>8.1639382</v>
+      </c>
+      <c r="S10">
+        <v>286.97610075</v>
+      </c>
+      <c r="T10">
+        <v>0.006447</v>
+      </c>
+      <c r="U10">
+        <v>0.4287509</v>
+      </c>
+      <c r="V10">
+        <v>0.01880045</v>
+      </c>
+      <c r="W10">
+        <v>0.5503764499999999</v>
+      </c>
+      <c r="X10">
+        <v>17.27679805</v>
+      </c>
+      <c r="Y10">
+        <v>2.00421505</v>
+      </c>
+      <c r="Z10">
+        <v>0.3551123</v>
+      </c>
+      <c r="AA10">
+        <v>0.2798902</v>
+      </c>
+      <c r="AB10">
+        <v>0.32276085</v>
+      </c>
+      <c r="AC10">
+        <v>8.947489600000001</v>
+      </c>
+      <c r="AD10">
+        <v>3.3136268</v>
+      </c>
+      <c r="AE10">
+        <v>10.13377335</v>
+      </c>
+      <c r="AF10">
+        <v>2.0500512</v>
+      </c>
+      <c r="AG10">
+        <v>2.10015655</v>
+      </c>
+      <c r="AH10">
+        <v>0.6129152</v>
+      </c>
+      <c r="AI10">
+        <v>5.999545449999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.2736474999999999</v>
+      </c>
+      <c r="AK10">
+        <v>0.3865719</v>
+      </c>
+      <c r="AL10">
+        <v>0.07972870000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.41419295</v>
+      </c>
+      <c r="AN10">
+        <v>0.5094147</v>
+      </c>
+      <c r="AO10">
+        <v>0.2651582</v>
+      </c>
+      <c r="AP10">
+        <v>3.091243299999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0.08333205</v>
+      </c>
+      <c r="AR10">
+        <v>0.975106</v>
+      </c>
+      <c r="AS10">
+        <v>1.03029105</v>
+      </c>
+      <c r="AT10">
+        <v>3.0738643</v>
+      </c>
+      <c r="AU10">
+        <v>0.1789066</v>
+      </c>
+      <c r="AV10">
+        <v>0.638070898249756</v>
+      </c>
+      <c r="AW10">
+        <v>4.8794414223537</v>
+      </c>
+      <c r="AX10">
+        <v>0.013456149421459</v>
+      </c>
+      <c r="AY10">
+        <v>0.310359862025071</v>
+      </c>
+      <c r="AZ10">
+        <v>0.1398600082798115</v>
+      </c>
+      <c r="BA10">
+        <v>61885.66272447111</v>
+      </c>
+      <c r="BB10">
+        <v>0.001478683212221355</v>
+      </c>
+      <c r="BC10">
+        <v>3.898735601645923</v>
+      </c>
+      <c r="BD10">
+        <v>0.004820356275050742</v>
+      </c>
+      <c r="BE10">
+        <v>14.4995017503862</v>
+      </c>
+      <c r="BF10">
+        <v>3.167078765722776</v>
+      </c>
+      <c r="BG10">
+        <v>3.780991237340032E-05</v>
+      </c>
+      <c r="BH10">
+        <v>0.1615279532635223</v>
+      </c>
+      <c r="BI10">
+        <v>5750.854663556778</v>
+      </c>
+      <c r="BJ10">
+        <v>6.341036348771765</v>
+      </c>
+      <c r="BK10">
+        <v>0.002408900366622869</v>
+      </c>
+      <c r="BL10">
+        <v>2.428456955224202</v>
+      </c>
+      <c r="BM10">
+        <v>43.80409482082737</v>
+      </c>
+      <c r="BN10">
+        <v>0.004103408429201523</v>
+      </c>
+      <c r="BO10">
+        <v>0.03510342702253324</v>
+      </c>
+      <c r="BP10">
+        <v>0.002950692647944136</v>
+      </c>
+      <c r="BQ10">
+        <v>0.02826607474932117</v>
+      </c>
+      <c r="BR10">
+        <v>67.77581183320474</v>
+      </c>
+      <c r="BS10">
+        <v>0.3857963072394926</v>
+      </c>
+      <c r="BT10">
+        <v>0.08298564115499296</v>
+      </c>
+      <c r="BU10">
+        <v>0.1197937730481672</v>
+      </c>
+      <c r="BV10">
+        <v>0.1269423194037666</v>
+      </c>
+      <c r="BW10">
+        <v>1.326994004174151</v>
+      </c>
+      <c r="BX10">
+        <v>0.9818927951691651</v>
+      </c>
+      <c r="BY10">
+        <v>1.167843774575326</v>
+      </c>
+      <c r="BZ10">
+        <v>0.7168834161538256</v>
+      </c>
+      <c r="CA10">
+        <v>1.414123587674916</v>
+      </c>
+      <c r="CB10">
+        <v>0.1724238540621399</v>
+      </c>
+      <c r="CC10">
+        <v>0.4675073141441325</v>
+      </c>
+      <c r="CD10">
+        <v>0.07103920936726643</v>
+      </c>
+      <c r="CE10">
+        <v>0.1324148635232624</v>
+      </c>
+      <c r="CF10">
+        <v>0.03285268260792171</v>
+      </c>
+      <c r="CG10">
+        <v>0.1457845319466098</v>
+      </c>
+      <c r="CH10">
+        <v>0.05614014609800426</v>
+      </c>
+      <c r="CI10">
+        <v>0.09312838401882584</v>
+      </c>
+      <c r="CJ10">
+        <v>1.983639183207659</v>
+      </c>
+      <c r="CK10">
+        <v>0.03278792412888591</v>
+      </c>
+      <c r="CL10">
+        <v>0.3728951616500273</v>
+      </c>
+      <c r="CM10">
+        <v>0.2586199134323074</v>
+      </c>
+      <c r="CN10">
+        <v>0.5573240163746855</v>
+      </c>
+      <c r="CO10">
+        <v>0.07914511904982217</v>
+      </c>
+      <c r="CP10">
+        <v>20</v>
+      </c>
+      <c r="CQ10">
+        <v>20</v>
+      </c>
+      <c r="CR10">
+        <v>20</v>
+      </c>
+      <c r="CS10">
+        <v>20</v>
+      </c>
+      <c r="CT10">
+        <v>20</v>
+      </c>
+      <c r="CU10">
+        <v>20</v>
+      </c>
+      <c r="CV10">
+        <v>20</v>
+      </c>
+      <c r="CW10">
+        <v>20</v>
+      </c>
+      <c r="CX10">
+        <v>20</v>
+      </c>
+      <c r="CY10">
+        <v>20</v>
+      </c>
+      <c r="CZ10">
+        <v>20</v>
+      </c>
+      <c r="DA10">
+        <v>20</v>
+      </c>
+      <c r="DB10">
+        <v>20</v>
+      </c>
+      <c r="DC10">
+        <v>20</v>
+      </c>
+      <c r="DD10">
+        <v>20</v>
+      </c>
+      <c r="DE10">
+        <v>20</v>
+      </c>
+      <c r="DF10">
+        <v>20</v>
+      </c>
+      <c r="DG10">
+        <v>20</v>
+      </c>
+      <c r="DH10">
+        <v>20</v>
+      </c>
+      <c r="DI10">
+        <v>20</v>
+      </c>
+      <c r="DJ10">
+        <v>20</v>
+      </c>
+      <c r="DK10">
+        <v>20</v>
+      </c>
+      <c r="DL10">
+        <v>20</v>
+      </c>
+      <c r="DM10">
+        <v>20</v>
+      </c>
+      <c r="DN10">
+        <v>20</v>
+      </c>
+      <c r="DO10">
+        <v>20</v>
+      </c>
+      <c r="DP10">
+        <v>20</v>
+      </c>
+      <c r="DQ10">
+        <v>20</v>
+      </c>
+      <c r="DR10">
+        <v>20</v>
+      </c>
+      <c r="DS10">
+        <v>20</v>
+      </c>
+      <c r="DT10">
+        <v>20</v>
+      </c>
+      <c r="DU10">
+        <v>20</v>
+      </c>
+      <c r="DV10">
+        <v>20</v>
+      </c>
+      <c r="DW10">
+        <v>20</v>
+      </c>
+      <c r="DX10">
+        <v>20</v>
+      </c>
+      <c r="DY10">
+        <v>20</v>
+      </c>
+      <c r="DZ10">
+        <v>20</v>
+      </c>
+      <c r="EA10">
+        <v>20</v>
+      </c>
+      <c r="EB10">
+        <v>20</v>
+      </c>
+      <c r="EC10">
+        <v>20</v>
+      </c>
+      <c r="ED10">
+        <v>20</v>
+      </c>
+      <c r="EE10">
+        <v>20</v>
+      </c>
+      <c r="EF10">
+        <v>20</v>
+      </c>
+      <c r="EG10">
+        <v>20</v>
+      </c>
+      <c r="EH10">
+        <v>20</v>
+      </c>
+      <c r="EI10">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="T1:AK1"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AB2"/>
-    <mergeCell ref="AC2:AK2"/>
-    <mergeCell ref="AL2:AT2"/>
-    <mergeCell ref="AU2:BC2"/>
+    <mergeCell ref="B1:AU1"/>
+    <mergeCell ref="AV1:CO1"/>
+    <mergeCell ref="CP1:EI1"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="Y2:AU2"/>
+    <mergeCell ref="AV2:BR2"/>
+    <mergeCell ref="BS2:CO2"/>
+    <mergeCell ref="CP2:DL2"/>
+    <mergeCell ref="DM2:EI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
